--- a/Barbie_Financiera_FASE_2/Reporte de pruebas.xlsx
+++ b/Barbie_Financiera_FASE_2/Reporte de pruebas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235662_esen_edu_sv/Documents/Ciclo 03-2/agile/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9D6A1-B9E8-41B6-82A7-F6B287C5FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{47F9D6A1-B9E8-41B6-82A7-F6B287C5FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA30A9A9-F3BA-4E3C-8FB5-64731C274090}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07A5FFBA-4130-44AE-B4C6-BDAAA3538E84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07A5FFBA-4130-44AE-B4C6-BDAAA3538E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -461,11 +461,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -476,15 +489,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,35 +520,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009A46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <strike val="0"/>
@@ -596,7 +588,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -912,385 +904,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D52981-BA15-42EF-8E29-980349E34D33}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" ht="119.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="119.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="3">
-        <f>COUNTIF(D2:D26, "Passed")</f>
+        <f>COUNTIF(D2:D19, "Passed")</f>
         <v>11</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1"/>
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="3">
-        <f>COUNTIF(D2:D27, "N/A")</f>
+        <f>COUNTIF(D2:D20, "N/A")</f>
         <v>0</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:10" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="1"/>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="3">
-        <f>COUNTIF(D2:D28, "Failed")</f>
+        <f>COUNTIF(D2:D21, "Failed")</f>
         <v>3</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:10" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="1"/>
       <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="3">
-        <f>COUNTIF(D2:D29, "Blocked")</f>
+        <f>COUNTIF(D2:D22, "Blocked")</f>
         <v>0</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="1"/>
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="3">
-        <f>COUNTIF(D2:D30, "Pending")</f>
+        <f>COUNTIF(D2:D23, "Pending")</f>
         <v>0</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="1"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="8">
-        <f>COUNTA(B2:B26)</f>
+        <f>COUNTA(B2:B19)</f>
         <v>14</v>
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:10" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:10" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:10" ht="88.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:10" ht="105.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="1"/>
@@ -1298,91 +1290,91 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1394,7 +1386,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1406,7 +1398,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1418,7 +1410,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1430,7 +1422,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1442,7 +1434,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1454,7 +1446,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1466,7 +1458,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1478,7 +1470,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1490,7 +1482,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1502,7 +1494,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1514,7 +1506,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1526,106 +1518,16 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D19 D8:D16">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>

--- a/Barbie_Financiera_FASE_2/Reporte de pruebas.xlsx
+++ b/Barbie_Financiera_FASE_2/Reporte de pruebas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235662_esen_edu_sv/Documents/Ciclo 03-2/agile/Proyecto/Proyecto-PDS-BarbieFinanciera/Barbie_Financiera_FASE_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{47F9D6A1-B9E8-41B6-82A7-F6B287C5FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA30A9A9-F3BA-4E3C-8FB5-64731C274090}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C994C7-C139-42A6-A78F-5B74641E0369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07A5FFBA-4130-44AE-B4C6-BDAAA3538E84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07A5FFBA-4130-44AE-B4C6-BDAAA3538E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -183,13 +183,64 @@
   </si>
   <si>
     <t>BF-0042DE002</t>
+  </si>
+  <si>
+    <t>BF-0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP001</t>
+  </si>
+  <si>
+    <t>Ver presupuestos de todos los meses anteriores</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP002</t>
+  </si>
+  <si>
+    <t>Verificar que al agregar una nueva categoría, se muestre en el reporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP003</t>
+  </si>
+  <si>
+    <t>Visualizar comparación en gráfico de líneas.</t>
+  </si>
+  <si>
+    <t>Caso de prueba no ha sido implementado en la aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP004</t>
+  </si>
+  <si>
+    <t>Visualizar gastos por categorías en gráfico de barras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP005</t>
+  </si>
+  <si>
+    <t>Visualizar el cambio en el dinero disponible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP006</t>
+  </si>
+  <si>
+    <t>Ver la evolución de gastos por categorías.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BF-0044CP007</t>
+  </si>
+  <si>
+    <t>Descargar reporte de presupuesto en formato PDF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +268,39 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +313,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009A46"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADADAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -277,7 +377,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -289,13 +389,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -304,10 +419,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -322,24 +504,29 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -352,12 +539,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -367,12 +552,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -382,93 +565,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -478,31 +575,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +588,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,16 +609,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,8 +716,1073 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A7A7-4D1C-AAFD-40A3A0D81BC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A7A7-4D1C-AAFD-40A3A0D81BC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A7A7-4D1C-AAFD-40A3A0D81BC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A7A7-4D1C-AAFD-40A3A0D81BC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A7A7-4D1C-AAFD-40A3A0D81BC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-SV"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$H$2:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pasados (Passed)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fallidos (Failed)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bloqueados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pendientes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-374B-452B-B820-323C98480BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-SV"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-SV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1076</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>742627</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1313050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D57766D-98D4-ECD7-7196-594EA0E6C1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -904,489 +2098,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D52981-BA15-42EF-8E29-980349E34D33}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="119.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3">
-        <f>COUNTIF(D2:D19, "Passed")</f>
+      <c r="I2" s="25">
+        <f>COUNTIF(D2:D27, "Passed")</f>
+        <v>15</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="25">
+        <f>COUNTIF(D2:D185, "N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="25">
+        <f>COUNTIF(D2:D27, "Failed")</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="25">
+        <f>COUNTIF(D2:D30, "Blocked")</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="I6" s="25">
+        <f>COUNTIF(D2:D31, "Pending")</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3">
-        <f>COUNTIF(D2:D20, "N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="25">
+        <f>COUNTA(B2:B56)</f>
+        <v>21</v>
+      </c>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3">
-        <f>COUNTIF(D2:D21, "Failed")</f>
-        <v>3</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3">
-        <f>COUNTIF(D2:D22, "Blocked")</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3">
-        <f>COUNTIF(D2:D23, "Pending")</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="8">
-        <f>COUNTA(B2:B19)</f>
-        <v>14</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:10" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="88.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="105.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:10" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+    <row r="16" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+    <row r="17" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+    <row r="18" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+    <row r="19" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="20" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+    <row r="21" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+    <row r="22" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1398,7 +2676,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1410,7 +2688,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1422,7 +2700,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1434,7 +2712,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1446,7 +2724,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1458,7 +2736,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1470,7 +2748,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1482,7 +2760,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1494,7 +2772,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1506,7 +2784,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1518,6 +2796,102 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
@@ -1527,7 +2901,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D15">
+  <conditionalFormatting sqref="D2:D16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -1536,5 +2910,280 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F331B4C8B05B0E4788508091A2290B75" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="355989c8b783bb3c302a1c3f514a9f0d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="380b7a61-fa5d-4310-b4f6-f1ec7c52c764" xmlns:ns4="5ab344d6-1819-4ec9-91a8-9aed5d72701f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a59aa865803e5f69747f516ef204b74f" ns3:_="" ns4:_="">
+    <xsd:import namespace="380b7a61-fa5d-4310-b4f6-f1ec7c52c764"/>
+    <xsd:import namespace="5ab344d6-1819-4ec9-91a8-9aed5d72701f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="380b7a61-fa5d-4310-b4f6-f1ec7c52c764" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_activity" ma:index="8" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5ab344d6-1819-4ec9-91a8-9aed5d72701f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="380b7a61-fa5d-4310-b4f6-f1ec7c52c764" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8B38AF-C62D-4041-9EFA-794BF6828847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B1EB40C-9217-4318-BEFD-74BB9AF3542B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="380b7a61-fa5d-4310-b4f6-f1ec7c52c764"/>
+    <ds:schemaRef ds:uri="5ab344d6-1819-4ec9-91a8-9aed5d72701f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D88FE9E-625B-4B9E-995D-DAD1DC3BD798}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="380b7a61-fa5d-4310-b4f6-f1ec7c52c764"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5ab344d6-1819-4ec9-91a8-9aed5d72701f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>